--- a/src/data/base.xlsx
+++ b/src/data/base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkn\PycharmProjects\AcidLLMRecommendation\data\ustc_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkn\PycharmProjects\AI-assisted-Catalysis\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0231121-B5EB-485E-AE9A-37F2C326044D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF5F6E1-4C85-4270-9C7A-C4CCAF3AA6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="3825" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2297" yWindow="2306" windowWidth="16457" windowHeight="9454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t>name</t>
   </si>
@@ -571,12 +571,6 @@
     <t>叔丁醇锂</t>
   </si>
   <si>
-    <t>4-dimethylaminopyridine</t>
-  </si>
-  <si>
-    <t>4-二甲氨基吡啶</t>
-  </si>
-  <si>
     <t>acetonitrile</t>
   </si>
   <si>
@@ -596,9 +590,6 @@
   </si>
   <si>
     <t>2-2'-联吡啶</t>
-  </si>
-  <si>
-    <t>2,2':6',2 "- tripyridine</t>
   </si>
   <si>
     <t>2,2':6',2''-三联吡啶</t>
@@ -1534,13 +1525,11 @@
     <t>2,2,3,3,4,4,4-七氟丁胺</t>
   </si>
   <si>
-    <t>N,N-Diethylethylenediamine</t>
-  </si>
-  <si>
-    <t>N,N'-Diethylethylenediamine</t>
-  </si>
-  <si>
     <t>2,2'-Bipyridine</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2',6',2"-tripyridine</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1659,7 +1648,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1953,19 +1942,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="76.25" customWidth="1"/>
+    <col min="1" max="1" width="68.23046875" customWidth="1"/>
+    <col min="2" max="2" width="76.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1981,7 +1970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +1978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1997,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2005,7 +1994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2013,7 +2002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2021,7 +2010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2029,7 +2018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2037,7 +2026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2045,7 +2034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2053,7 +2042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2061,7 +2050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2069,7 +2058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2077,7 +2066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2085,7 +2074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2093,7 +2082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2101,7 +2090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -2109,7 +2098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -2117,7 +2106,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2125,7 +2114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -2133,7 +2122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -2141,7 +2130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -2149,7 +2138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,7 +2146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -2165,7 +2154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2173,7 +2162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2181,7 +2170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -2189,7 +2178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2197,7 +2186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -2205,7 +2194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -2213,7 +2202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -2221,7 +2210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2229,7 +2218,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -2237,7 +2226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -2245,7 +2234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2253,7 +2242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -2261,7 +2250,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -2269,7 +2258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -2277,7 +2266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -2285,7 +2274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -2293,7 +2282,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -2301,7 +2290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -2309,7 +2298,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -2317,7 +2306,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -2325,7 +2314,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -2333,7 +2322,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -2341,7 +2330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -2349,7 +2338,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -2357,7 +2346,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -2365,7 +2354,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -2373,7 +2362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -2381,7 +2370,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -2389,7 +2378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -2397,7 +2386,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -2405,7 +2394,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -2413,7 +2402,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -2421,7 +2410,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -2429,7 +2418,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -2437,7 +2426,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -2445,7 +2434,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -2453,7 +2442,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -2461,7 +2450,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -2469,7 +2458,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -2477,7 +2466,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -2485,7 +2474,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -2493,1001 +2482,983 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="2" t="s">
+    </row>
+    <row r="68" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A68" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B68" s="2" t="s">
+    <row r="69" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="2" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="2" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="2" t="s">
+    </row>
+    <row r="72" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="2" t="s">
+    </row>
+    <row r="73" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="2" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="2" t="s">
+    </row>
+    <row r="75" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="2" t="s">
+    </row>
+    <row r="76" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="2" t="s">
+    </row>
+    <row r="77" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="2" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="2" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="2" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="2" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="2" t="s">
+    </row>
+    <row r="82" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="2" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="2" t="s">
+    </row>
+    <row r="84" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="2" t="s">
+    </row>
+    <row r="85" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="2" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="2" t="s">
+    </row>
+    <row r="87" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="2" t="s">
+    </row>
+    <row r="88" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="2" t="s">
+    </row>
+    <row r="89" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="2" t="s">
+    </row>
+    <row r="90" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="2" t="s">
+    </row>
+    <row r="91" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="2" t="s">
+    </row>
+    <row r="92" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="2" t="s">
+    </row>
+    <row r="93" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="2" t="s">
+    </row>
+    <row r="94" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="2" t="s">
+    </row>
+    <row r="95" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B95" s="2" t="s">
+    </row>
+    <row r="96" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="2" t="s">
+    </row>
+    <row r="97" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="2" t="s">
+    </row>
+    <row r="98" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="2" t="s">
+    </row>
+    <row r="99" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="2" t="s">
+    </row>
+    <row r="100" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="2" t="s">
+    </row>
+    <row r="101" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="2" t="s">
+    </row>
+    <row r="102" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="2" t="s">
+    </row>
+    <row r="103" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="2" t="s">
+    </row>
+    <row r="104" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="2" t="s">
+    </row>
+    <row r="105" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="2" t="s">
+    </row>
+    <row r="106" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B106" s="2" t="s">
+    </row>
+    <row r="107" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B107" s="2" t="s">
+    </row>
+    <row r="108" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B108" s="2" t="s">
+    </row>
+    <row r="109" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B109" s="2" t="s">
+    </row>
+    <row r="110" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="2" t="s">
+    </row>
+    <row r="111" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B111" s="2" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B112" s="2" t="s">
+    </row>
+    <row r="113" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B113" s="2" t="s">
+    </row>
+    <row r="114" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B114" s="2" t="s">
+    </row>
+    <row r="115" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B115" s="2" t="s">
+    </row>
+    <row r="116" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B116" s="2" t="s">
+    </row>
+    <row r="117" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B117" s="2" t="s">
+    </row>
+    <row r="118" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B118" s="2" t="s">
+    </row>
+    <row r="119" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B119" s="2" t="s">
+    </row>
+    <row r="120" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B120" s="2" t="s">
+    </row>
+    <row r="121" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B121" s="2" t="s">
+    </row>
+    <row r="122" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="2" t="s">
+    </row>
+    <row r="123" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B123" s="2" t="s">
+    </row>
+    <row r="124" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B124" s="2" t="s">
+    </row>
+    <row r="125" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B125" s="2" t="s">
+    </row>
+    <row r="126" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B126" s="2" t="s">
+    </row>
+    <row r="127" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B127" s="2" t="s">
+    </row>
+    <row r="128" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B128" s="2" t="s">
+    </row>
+    <row r="129" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B129" s="2" t="s">
+    </row>
+    <row r="130" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B130" s="2" t="s">
+    </row>
+    <row r="131" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="2" t="s">
+    </row>
+    <row r="132" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B132" s="2" t="s">
+    </row>
+    <row r="133" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B133" s="2" t="s">
+    </row>
+    <row r="134" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B134" s="2" t="s">
+    </row>
+    <row r="135" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B135" s="2" t="s">
+    </row>
+    <row r="136" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B136" s="2" t="s">
+    </row>
+    <row r="137" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B137" s="2" t="s">
+    </row>
+    <row r="138" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B138" s="2" t="s">
+    </row>
+    <row r="139" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B139" s="2" t="s">
+    </row>
+    <row r="140" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B140" s="2" t="s">
+    </row>
+    <row r="141" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B141" s="2" t="s">
+    </row>
+    <row r="142" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B142" s="2" t="s">
+    </row>
+    <row r="143" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B143" s="2" t="s">
+    </row>
+    <row r="144" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B144" s="2" t="s">
+    </row>
+    <row r="145" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B145" s="2" t="s">
+    </row>
+    <row r="146" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B146" s="2" t="s">
+    </row>
+    <row r="147" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B147" s="2" t="s">
+    </row>
+    <row r="148" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B148" s="2" t="s">
+    </row>
+    <row r="149" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B149" s="2" t="s">
+    </row>
+    <row r="150" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B150" s="2" t="s">
+    </row>
+    <row r="151" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B151" s="2" t="s">
+    </row>
+    <row r="152" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B152" s="2" t="s">
+    </row>
+    <row r="153" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B153" s="2" t="s">
+    </row>
+    <row r="154" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B154" s="2" t="s">
+    </row>
+    <row r="155" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B155" s="2" t="s">
+    </row>
+    <row r="156" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B156" s="2" t="s">
+    </row>
+    <row r="157" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B157" s="2" t="s">
+    </row>
+    <row r="158" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B158" s="2" t="s">
+    </row>
+    <row r="159" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B159" s="2" t="s">
+    </row>
+    <row r="160" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B160" s="2" t="s">
+    </row>
+    <row r="161" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B161" s="2" t="s">
+    </row>
+    <row r="162" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B162" s="2" t="s">
+    </row>
+    <row r="163" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B163" s="2" t="s">
+    </row>
+    <row r="164" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B164" s="2" t="s">
+    </row>
+    <row r="165" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B165" s="2" t="s">
+    </row>
+    <row r="166" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="B166" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B166" s="2" t="s">
+    </row>
+    <row r="167" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B167" s="2" t="s">
+    </row>
+    <row r="168" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B168" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B168" s="2" t="s">
+    </row>
+    <row r="169" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B169" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B169" s="2" t="s">
+    </row>
+    <row r="170" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B170" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B170" s="2" t="s">
+    </row>
+    <row r="171" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="B171" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B171" s="2" t="s">
+    </row>
+    <row r="172" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B172" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B172" s="2" t="s">
+    </row>
+    <row r="173" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B173" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B173" s="2" t="s">
+    </row>
+    <row r="174" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B174" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B174" s="2" t="s">
+    </row>
+    <row r="175" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B175" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B175" s="2" t="s">
+    </row>
+    <row r="176" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B176" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B176" s="2" t="s">
+    </row>
+    <row r="177" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A177" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B177" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B177" s="2" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+      <c r="B178" t="s">
         <v>353</v>
       </c>
-      <c r="B178" s="2" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A179" t="s">
+      <c r="B179" t="s">
         <v>355</v>
       </c>
-      <c r="B179" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A180" t="s">
+      <c r="B180" t="s">
         <v>357</v>
       </c>
-      <c r="B180" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181" t="s">
+      <c r="B181" t="s">
         <v>359</v>
       </c>
-      <c r="B181" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
+      <c r="B182" t="s">
         <v>361</v>
       </c>
-      <c r="B182" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
+      <c r="B183" t="s">
         <v>363</v>
       </c>
-      <c r="B183" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
+      <c r="B184" t="s">
         <v>365</v>
       </c>
-      <c r="B184" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
+      <c r="B185" t="s">
         <v>367</v>
       </c>
-      <c r="B185" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
+      <c r="B186" t="s">
         <v>369</v>
       </c>
-      <c r="B186" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187" t="s">
+      <c r="B187" t="s">
         <v>371</v>
-      </c>
-      <c r="B187" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188" t="s">
-        <v>373</v>
-      </c>
-      <c r="B188" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A190" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A134:A167">
+  <conditionalFormatting sqref="A133:A166">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A178">
+  <conditionalFormatting sqref="A177">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179:A1048576 A1:A133 A168:A177">
+  <conditionalFormatting sqref="A178:A1048576 A1:A132 A167:A176">
     <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
@@ -3504,7 +3475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3518,7 +3489,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
